--- a/results/sfcc_CNN2DModel_3layers_avgpool_PLV.xlsx
+++ b/results/sfcc_CNN2DModel_3layers_avgpool_PLV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327812F2-5C06-4136-A472-7FCFE047E000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331DCC4A-DDBC-4D7A-BD93-9A6C5E07F766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,6 +201,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
